--- a/Vallarta/listaContactos.xlsx
+++ b/Vallarta/listaContactos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="37">
   <si>
     <t>Movil</t>
   </si>
@@ -31,10 +31,10 @@
 📍 Centro Internacional de Convenciones, Puerto Vallarta
  https://maps.app.goo.gl/ZARoUF5DKiU1hLr29
 Conéctate con expertos y descubre lo último en turismo e inversión inmobiliaria en México. 🏝️🏢
-📲 Más info: 56 1858 7276 / 32 2596 0215</t>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\Downloads\WhatsAutoA\Images\summita.jpg</t>
+📲 Más info: 56 1858 7276 / 32 2596 0226</t>
+  </si>
+  <si>
+    <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\summita.jpg</t>
   </si>
   <si>
     <t>🚀 ¡No te pierdas el EXPO del SUMMIT TURÍSTICO INTERNACIONAL en Puerto Vallarta! 🌎✨
@@ -45,108 +45,6 @@
 📆 26-28 de junio
 📍 Centro Internacional de Convenciones, Puerto Vallarta
 🔗 Reserva tu lugar ahora: https://wechamber.mx/checkout/65edc0827a9470001b639a01?organization=Asociaci%C3%B3n%20Mexicana%20de%20Profesionales%20Inmobiliarios%20AC</t>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\Downloads\WhatsAutoA\Images\summitb.jpg</t>
-  </si>
-  <si>
-    <t>🎟️ ¡ENTRADA GRATIS! 🎟️
-🚀 ¡No te puedes perder el EXPO del SUMMIT TURÍSTICO INTERNACIONAL! 🌎✨
-📆 27-28 de junio
-📍 Centro Internacional de Convenciones, Puerto Vallarta
- https://maps.app.goo.gl/ZARoUF5DKiU1hLr29
-Conéctate con expertos y descubre lo último en turismo e inversión inmobiliaria en México. 🏝️🏢
-📲 Más info: 56 1858 7276 / 32 2596 0216</t>
-  </si>
-  <si>
-    <t>🎟️ ¡ENTRADA GRATIS! 🎟️
-🚀 ¡No te puedes perder el EXPO del SUMMIT TURÍSTICO INTERNACIONAL! 🌎✨
-📆 27-28 de junio
-📍 Centro Internacional de Convenciones, Puerto Vallarta
- https://maps.app.goo.gl/ZARoUF5DKiU1hLr29
-Conéctate con expertos y descubre lo último en turismo e inversión inmobiliaria en México. 🏝️🏢
-📲 Más info: 56 1858 7276 / 32 2596 0217</t>
-  </si>
-  <si>
-    <t>🎟️ ¡ENTRADA GRATIS! 🎟️
-🚀 ¡No te puedes perder el EXPO del SUMMIT TURÍSTICO INTERNACIONAL! 🌎✨
-📆 27-28 de junio
-📍 Centro Internacional de Convenciones, Puerto Vallarta
- https://maps.app.goo.gl/ZARoUF5DKiU1hLr29
-Conéctate con expertos y descubre lo último en turismo e inversión inmobiliaria en México. 🏝️🏢
-📲 Más info: 56 1858 7276 / 32 2596 0218</t>
-  </si>
-  <si>
-    <t>🎟️ ¡ENTRADA GRATIS! 🎟️
-🚀 ¡No te puedes perder el EXPO del SUMMIT TURÍSTICO INTERNACIONAL! 🌎✨
-📆 27-28 de junio
-📍 Centro Internacional de Convenciones, Puerto Vallarta
- https://maps.app.goo.gl/ZARoUF5DKiU1hLr29
-Conéctate con expertos y descubre lo último en turismo e inversión inmobiliaria en México. 🏝️🏢
-📲 Más info: 56 1858 7276 / 32 2596 0219</t>
-  </si>
-  <si>
-    <t>🎟️ ¡ENTRADA GRATIS! 🎟️
-🚀 ¡No te puedes perder el EXPO del SUMMIT TURÍSTICO INTERNACIONAL! 🌎✨
-📆 27-28 de junio
-📍 Centro Internacional de Convenciones, Puerto Vallarta
- https://maps.app.goo.gl/ZARoUF5DKiU1hLr29
-Conéctate con expertos y descubre lo último en turismo e inversión inmobiliaria en México. 🏝️🏢
-📲 Más info: 56 1858 7276 / 32 2596 0220</t>
-  </si>
-  <si>
-    <t>🎟️ ¡ENTRADA GRATIS! 🎟️
-🚀 ¡No te puedes perder el EXPO del SUMMIT TURÍSTICO INTERNACIONAL! 🌎✨
-📆 27-28 de junio
-📍 Centro Internacional de Convenciones, Puerto Vallarta
- https://maps.app.goo.gl/ZARoUF5DKiU1hLr29
-Conéctate con expertos y descubre lo último en turismo e inversión inmobiliaria en México. 🏝️🏢
-📲 Más info: 56 1858 7276 / 32 2596 0221</t>
-  </si>
-  <si>
-    <t>🎟️ ¡ENTRADA GRATIS! 🎟️
-🚀 ¡No te puedes perder el EXPO del SUMMIT TURÍSTICO INTERNACIONAL! 🌎✨
-📆 27-28 de junio
-📍 Centro Internacional de Convenciones, Puerto Vallarta
- https://maps.app.goo.gl/ZARoUF5DKiU1hLr29
-Conéctate con expertos y descubre lo último en turismo e inversión inmobiliaria en México. 🏝️🏢
-📲 Más info: 56 1858 7276 / 32 2596 0222</t>
-  </si>
-  <si>
-    <t>🎟️ ¡ENTRADA GRATIS! 🎟️
-🚀 ¡No te puedes perder el EXPO del SUMMIT TURÍSTICO INTERNACIONAL! 🌎✨
-📆 27-28 de junio
-📍 Centro Internacional de Convenciones, Puerto Vallarta
- https://maps.app.goo.gl/ZARoUF5DKiU1hLr29
-Conéctate con expertos y descubre lo último en turismo e inversión inmobiliaria en México. 🏝️🏢
-📲 Más info: 56 1858 7276 / 32 2596 0223</t>
-  </si>
-  <si>
-    <t>🎟️ ¡ENTRADA GRATIS! 🎟️
-🚀 ¡No te puedes perder el EXPO del SUMMIT TURÍSTICO INTERNACIONAL! 🌎✨
-📆 27-28 de junio
-📍 Centro Internacional de Convenciones, Puerto Vallarta
- https://maps.app.goo.gl/ZARoUF5DKiU1hLr29
-Conéctate con expertos y descubre lo último en turismo e inversión inmobiliaria en México. 🏝️🏢
-📲 Más info: 56 1858 7276 / 32 2596 0224</t>
-  </si>
-  <si>
-    <t>🎟️ ¡ENTRADA GRATIS! 🎟️
-🚀 ¡No te puedes perder el EXPO del SUMMIT TURÍSTICO INTERNACIONAL! 🌎✨
-📆 27-28 de junio
-📍 Centro Internacional de Convenciones, Puerto Vallarta
- https://maps.app.goo.gl/ZARoUF5DKiU1hLr29
-Conéctate con expertos y descubre lo último en turismo e inversión inmobiliaria en México. 🏝️🏢
-📲 Más info: 56 1858 7276 / 32 2596 0225</t>
-  </si>
-  <si>
-    <t>🎟️ ¡ENTRADA GRATIS! 🎟️
-🚀 ¡No te puedes perder el EXPO del SUMMIT TURÍSTICO INTERNACIONAL! 🌎✨
-📆 27-28 de junio
-📍 Centro Internacional de Convenciones, Puerto Vallarta
- https://maps.app.goo.gl/ZARoUF5DKiU1hLr29
-Conéctate con expertos y descubre lo último en turismo e inversión inmobiliaria en México. 🏝️🏢
-📲 Más info: 56 1858 7276 / 32 2596 0226</t>
   </si>
   <si>
     <t>🎟️ ¡ENTRADA GRATIS! 🎟️
@@ -450,7 +348,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -819,7 +717,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -841,9 +739,9 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="150.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3">
-        <v>3111439524</v>
+        <v>3111591314</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -852,23 +750,23 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="150.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3">
-        <v>3111501657</v>
+        <v>3112601365</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
+        <v>3111592939</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="150.75">
-      <c r="A4" s="3">
-        <v>3111444814</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -876,21 +774,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
-        <v>3111541141</v>
+        <v>3112637937</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3">
-        <v>3111458031</v>
+        <v>3111595293</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -898,21 +796,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3">
-        <v>3111591314</v>
+        <v>3112696843</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3">
-        <v>3111479310</v>
+        <v>3111625034</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
@@ -920,21 +818,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3">
-        <v>3112017704</v>
+        <v>3112834759</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3">
-        <v>3111488299</v>
+        <v>3111636156</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -942,21 +840,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3">
-        <v>3112301290</v>
+        <v>3113390655</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3">
-        <v>3111495027</v>
+        <v>3111685346</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -964,21 +862,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3">
-        <v>3112302448</v>
+        <v>3118475636</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3">
-        <v>3111496628</v>
+        <v>3111688679</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>4</v>
@@ -986,21 +884,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3">
-        <v>3112304001</v>
+        <v>3118478190</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3">
-        <v>3111541141</v>
+        <v>3111757756</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -1008,21 +906,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3">
-        <v>3112334477</v>
+        <v>3118478340</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3">
-        <v>3111577997</v>
+        <v>3111759803</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -1030,21 +928,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3">
-        <v>3112404995</v>
+        <v>3118479759</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3">
-        <v>3111583685</v>
+        <v>3111795491</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -1052,21 +950,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3">
-        <v>3112463535</v>
+        <v>3118768554</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3">
-        <v>3111586016</v>
+        <v>3111891570</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -1074,21 +972,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3">
-        <v>3112600653</v>
+        <v>3121007173</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3">
-        <v>3111591314</v>
+        <v>3111894745</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -1096,21 +994,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3">
-        <v>3112601365</v>
+        <v>3121022065</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3">
-        <v>3111592939</v>
+        <v>3111909929</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -1118,21 +1016,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3">
-        <v>3112637937</v>
+        <v>3121061338</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3">
-        <v>3111595293</v>
+        <v>3111916245</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -1140,21 +1038,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3">
-        <v>3112696843</v>
+        <v>3121071671</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3">
-        <v>3111625034</v>
+        <v>3111990986</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -1162,21 +1060,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3">
-        <v>3112834759</v>
+        <v>3121094334</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="3">
-        <v>3111636156</v>
+        <v>3112005685</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -1184,21 +1082,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3">
-        <v>3113390655</v>
+        <v>3121143879</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3">
-        <v>3111685346</v>
+        <v>3112013184</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -1206,21 +1104,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3">
-        <v>3118475636</v>
+        <v>3121187356</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3">
-        <v>3111688679</v>
+        <v>3112016484</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -1228,21 +1126,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="3">
-        <v>3118478190</v>
+        <v>3121203934</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3">
-        <v>3111757756</v>
+        <v>3112048294</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
@@ -1250,21 +1148,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="3">
-        <v>3118478340</v>
+        <v>3121217086</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="3">
-        <v>3111759803</v>
+        <v>3112048677</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
@@ -1272,21 +1170,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="3">
-        <v>3118479759</v>
+        <v>3121269731</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="3">
-        <v>3111795491</v>
+        <v>3112049053</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>4</v>
@@ -1294,21 +1192,21 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="3">
-        <v>3118768554</v>
+        <v>3121308020</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="3">
-        <v>3111891570</v>
+        <v>3112200053</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>4</v>
@@ -1316,463 +1214,221 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="3">
-        <v>3121007173</v>
+        <v>3121316123</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="146.25">
       <c r="A46" s="3">
-        <v>3111894745</v>
+        <v>3112203894</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="146.25">
+      <c r="A47" s="3">
+        <v>3121316821</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="146.25">
+      <c r="A48" s="3">
+        <v>3112204622</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="3">
-        <v>3121022065</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="3">
-        <v>3111909929</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="C48" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="146.25">
+      <c r="A49" s="3">
+        <v>3121321517</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="146.25">
+      <c r="A50" s="3">
+        <v>3112249395</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="3">
-        <v>3121061338</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="3">
-        <v>3111916245</v>
-      </c>
-      <c r="B50" s="4" t="s">
+      <c r="C50" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="146.25">
+      <c r="A51" s="3">
+        <v>3121321896</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="146.25">
+      <c r="A52" s="3">
+        <v>3112301290</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="3">
-        <v>3121071671</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="3">
-        <v>3111990986</v>
-      </c>
-      <c r="B52" s="4" t="s">
+      <c r="C52" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="146.25">
+      <c r="A53" s="3">
+        <v>3121343305</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="146.25">
+      <c r="A54" s="3">
+        <v>3112302448</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="3">
-        <v>3121094334</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="3">
-        <v>3112005685</v>
-      </c>
-      <c r="B54" s="4" t="s">
+      <c r="C54" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="146.25">
+      <c r="A55" s="3">
+        <v>3121375673</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="146.25">
+      <c r="A56" s="3">
+        <v>3112334477</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="3">
-        <v>3121143879</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="3">
-        <v>3112013184</v>
-      </c>
-      <c r="B56" s="4" t="s">
+      <c r="C56" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="146.25">
+      <c r="A57" s="3">
+        <v>3121381256</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="146.25">
+      <c r="A58" s="3">
+        <v>3112384119</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="3">
-        <v>3121187356</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="3">
-        <v>3112016484</v>
-      </c>
-      <c r="B58" s="4" t="s">
+      <c r="C58" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="146.25">
+      <c r="A59" s="3">
+        <v>3121387943</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="146.25">
+      <c r="A60" s="3">
+        <v>3112404719</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="3">
-        <v>3121203934</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="3">
-        <v>3112048294</v>
-      </c>
-      <c r="B60" s="4" t="s">
+      <c r="C60" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="146.25">
+      <c r="A61" s="3">
+        <v>3121393478</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="146.25">
+      <c r="A62" s="3">
+        <v>3112404995</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="3">
-        <v>3121217086</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="3">
-        <v>3112048677</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="C62" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="146.25">
+      <c r="A63" s="3">
+        <v>3121399592</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="146.25">
+      <c r="A64" s="3">
+        <v>3112464552</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="3">
-        <v>3121269731</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="3">
-        <v>3112049053</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C64" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="3">
-        <v>3121308020</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="3">
-        <v>3112200053</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="3">
-        <v>3121316123</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="3">
-        <v>3112203894</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="3">
-        <v>3121316821</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="3">
-        <v>3112204622</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="3">
-        <v>3121321517</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="3">
-        <v>3112249395</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="3">
-        <v>3121321896</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="3">
-        <v>3112301290</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="3">
-        <v>3121343305</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="3">
-        <v>3112302448</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="3">
-        <v>3121375673</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="3">
-        <v>3112334477</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="3">
-        <v>3121381256</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="3">
-        <v>3112384119</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="3">
-        <v>3121387943</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="3">
-        <v>3112404719</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="3">
-        <v>3121393478</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="3">
-        <v>3112404995</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="3">
-        <v>3121399592</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="3">
-        <v>3112464552</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C86" s="4" t="s">
         <v>4</v>
       </c>
     </row>
